--- a/excel/planilhasGerada/importar-parceiros-teste.xlsx
+++ b/excel/planilhasGerada/importar-parceiros-teste.xlsx
@@ -900,7 +900,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transportadora</t>
+          <t>Fornecedor | Transportadora</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -910,27 +910,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.534.679/0001-79</t>
+          <t>40.512.369/0001-06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Maria Eduarda da Rocha</t>
+          <t>Ana Laura Barros</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>matrix wireless interfaces</t>
+          <t>scale back-end schemas</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4613300</t>
+          <t>4530706</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>9039</v>
+        <v>3988</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -938,86 +938,78 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>82252918</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Dr. Vitor Hugo Martins</t>
+          <t>Yasmin Correia</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>753.620.194-06</t>
+          <t>69.127.054/0001-19</t>
         </is>
       </c>
       <c r="O3" s="6" t="inlineStr">
         <is>
-          <t>orchestrate holistic technologies</t>
+          <t>cultivate plug-and-play systems</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Comercial</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>41 7997 5971</t>
-        </is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>4251175928</v>
       </c>
       <c r="S3" s="6" t="inlineStr">
         <is>
-          <t>raulcorreia@gmail.com</t>
+          <t>stellasilveira@yahoo.com.br</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>COMERCIAL</t>
         </is>
       </c>
       <c r="U3" s="6" t="inlineStr">
         <is>
-          <t>44700388</t>
+          <t>74186314</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Residencial das Neves</t>
+          <t>Residencial de Monteiro</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Praia Maria Luiza Melo, 58
-São Salvador
-21254-107 Souza do Galho / MG</t>
+          <t>NFMOTX2VYF</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>João Pinheiro</t>
+          <t>Santa Efigênia</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Novo São Lucas</t>
+          <t>Araguaia</t>
         </is>
       </c>
       <c r="AA3" s="6" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1034,60 +1026,58 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transportadora</t>
+          <t>Cliente | Fornecedor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pessoa Física</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>416.890.275-76</t>
+          <t>71.902.856/0001-09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Luigi Novaes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>01/12/1961</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>Beatriz Pires</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>seize viral e-commerce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4530702</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>7627</v>
+        <v>9186</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Não Contribuinte</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>9395</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>502300</t>
-        </is>
-      </c>
+          <t>Isento</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Emanuella da Mota</t>
+          <t>Sr. Pietro da Conceição</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>456.387.920-74</t>
+          <t>70.235.168/0001-61</t>
         </is>
       </c>
       <c r="O4" s="6" t="inlineStr">
         <is>
-          <t>transition end-to-end markets</t>
+          <t>revolutionize end-to-end eyeballs</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1097,59 +1087,55 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Comercial</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>11 3783 9816</t>
-        </is>
+          <t>FAX</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>898549604</v>
       </c>
       <c r="S4" s="6" t="inlineStr">
         <is>
-          <t>davi-luizmoura@ig.com.br</t>
+          <t>nathanaraujo@ig.com.br</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Entrega</t>
+          <t>COMERCIAL</t>
         </is>
       </c>
       <c r="U4" s="6" t="inlineStr">
         <is>
-          <t>93715-291</t>
+          <t>54301087</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Morro Ana Júlia Moura</t>
+          <t>Estação Maria Clara Teixeira</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Residencial Elisa Castro, 5
-Salgado Filho
-00475490 Nogueira / AM</t>
+          <t>Y38P6D8BR5</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Olhos D'água</t>
+          <t>Bonsucesso</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Confisco</t>
+          <t>Vila Nova Cachoeirinha 3ª Seção</t>
         </is>
       </c>
       <c r="AA4" s="6" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1166,7 +1152,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cliente | Transportadora</t>
+          <t>Cliente | Fornecedor | Transportadora</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1176,44 +1162,46 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13897062496</t>
+          <t>92806341787</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Juan Castro</t>
+          <t>Luiz Gustavo Rezende</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>262</v>
+        <v>4137</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>Não Contribuinte</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>9384</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>24794329</t>
+          <t>82252918</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Cecília Costa</t>
+          <t>Sr. Matheus Ribeiro</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>59.623.714/0001-07</t>
+          <t>80923764178</t>
         </is>
       </c>
       <c r="O5" s="6" t="inlineStr">
         <is>
-          <t>harness intuitive interfaces</t>
+          <t>extend mission-critical e-tailers</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1223,59 +1211,55 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Comercial</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>+55 71 4331 2983</t>
-        </is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>1611269082</v>
       </c>
       <c r="S5" s="6" t="inlineStr">
         <is>
-          <t>yagorezende@uol.com.br</t>
+          <t>alvesnicolas@hotmail.com</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>ENTREGA</t>
         </is>
       </c>
       <c r="U5" s="6" t="inlineStr">
         <is>
-          <t>88734-905</t>
+          <t>02759698</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Avenida de Barbosa</t>
+          <t>Rua Natália Souza</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>78</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Pátio de Cardoso, 6
-Vila Real 2ª Seção
-12337-931 Porto do Sul / ES</t>
+          <t>LHVBXPUCJD</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Vila Primeiro De Maio</t>
+          <t>Estrela Do Oriente</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>São Gonçalo</t>
+          <t>Conjunto Floramar</t>
         </is>
       </c>
       <c r="AA5" s="6" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1292,29 +1276,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cliente | Transportadora</t>
+          <t>Fornecedor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Estrangeiro</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>71526894076</t>
+          <t>83.014.629/0001-18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bernardo Gonçalves</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Bernardo Alves</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>scale synergistic interfaces</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4530702</t>
+        </is>
+      </c>
       <c r="I6" t="n">
-        <v>4371</v>
+        <v>2039</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -1322,24 +1314,20 @@
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>82252918</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Raul Jesus</t>
+          <t>Eloah Silveira</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>69.327.104/0001-01</t>
+          <t>87.962.354/0001-03</t>
         </is>
       </c>
       <c r="O6" s="6" t="inlineStr">
         <is>
-          <t>revolutionize integrated users</t>
+          <t>seize web-enabled content</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1349,59 +1337,55 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Celular</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>+55 31 2237 4239</t>
-        </is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>4154849224</v>
       </c>
       <c r="S6" s="6" t="inlineStr">
         <is>
-          <t>ofogaca@yahoo.com.br</t>
+          <t>novaeslara@gmail.com</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>RESIDENCIAL</t>
         </is>
       </c>
       <c r="U6" s="6" t="inlineStr">
         <is>
-          <t>02844930</t>
+          <t>03598782</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Praça de Barros</t>
+          <t>Favela de Gomes</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Lagoa Alexandre Barros, 4
-Aarão Reis
-49607125 Silva / BA</t>
+          <t>43UX95YFE4</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Conjunto Serra Verde</t>
+          <t>Barroca</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Ermelinda</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="AA6" s="6" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1418,7 +1402,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fornecedor</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1428,17 +1412,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>50.271.468/0001-99</t>
+          <t>31.570.894/0001-89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mirella Jesus</t>
+          <t>Maysa Santos</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>transform dot-com users</t>
+          <t>visualize impactful networks</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -1448,14 +1432,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8050</v>
+        <v>4004</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>Não Contribuinte</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>182</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>24794329</t>
@@ -1463,17 +1449,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Sr. Vitor Gabriel Porto</t>
+          <t>Diego Moraes</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>92.631.854/0001-94</t>
+          <t>47.169.380/0001-56</t>
         </is>
       </c>
       <c r="O7" s="6" t="inlineStr">
         <is>
-          <t>evolve transparent web-readiness</t>
+          <t>brand extensible architectures</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1483,59 +1469,55 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>+55 31 0265 5979</t>
-        </is>
+          <t>FAX</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>3253131453</v>
       </c>
       <c r="S7" s="6" t="inlineStr">
         <is>
-          <t>xpereira@bol.com.br</t>
+          <t>rezendebruno@bol.com.br</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="U7" s="6" t="inlineStr">
         <is>
-          <t>68541-658</t>
+          <t>79202398</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Morro Pereira</t>
+          <t>Residencial de Gonçalves</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>11</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Favela de Azevedo, 52
-Floresta
-77566-669 da Rosa / SC</t>
+          <t>O82U5M6K46</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Santa Terezinha</t>
+          <t>Cidade Jardim</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Vila Da Paz</t>
+          <t>São João</t>
         </is>
       </c>
       <c r="AA7" s="6" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1552,7 +1534,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cliente</t>
+          <t>Fornecedor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1562,51 +1544,45 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27968305438</t>
+          <t>98607423169</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gabriel Santos</t>
+          <t>Srta. Caroline da Luz</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>5748</v>
+        <v>6321</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Contribuinte</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>561</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>24794329</t>
-        </is>
-      </c>
+          <t>Isento</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Dr. Paulo Alves</t>
+          <t>Maria Sophia Dias</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>051.647.298-49</t>
+          <t>96781234013</t>
         </is>
       </c>
       <c r="O8" s="6" t="inlineStr">
         <is>
-          <t>expedite world-class users</t>
+          <t>seize out-of-the-box technologies</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1614,51 +1590,47 @@
           <t>Residencial</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>+55 (031) 0557 3762</t>
-        </is>
+      <c r="R8" t="n">
+        <v>1698798481</v>
       </c>
       <c r="S8" s="6" t="inlineStr">
         <is>
-          <t>fda-luz@yahoo.com.br</t>
+          <t>isaac12@uol.com.br</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>COMERCIAL</t>
         </is>
       </c>
       <c r="U8" s="6" t="inlineStr">
         <is>
-          <t>13968448</t>
+          <t>03875829</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Conjunto Ferreira</t>
+          <t>Lago Luiz Henrique Vieira</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>8</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Avenida Marcela Caldeira, 82
-Novo Aarão Reis
-49638-457 Fogaça do Oeste / PE</t>
+          <t>FG5G21E3VF</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Pindura Saia</t>
+          <t>Olhos D'água</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Itapoa</t>
+          <t>Vila Nossa Senhora Do Rosário</t>
         </is>
       </c>
       <c r="AA8" s="6" t="inlineStr">
@@ -1680,29 +1652,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cliente</t>
+          <t>Cliente | Fornecedor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Estrangeiro</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>74913608231</t>
+          <t>32.618.570/0001-36</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Brenda Santos</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Thiago Lopes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>brand dynamic ROI</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4530702</t>
+        </is>
+      </c>
       <c r="I9" t="n">
-        <v>4036</v>
+        <v>9944</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1710,26 +1690,26 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>9974</v>
+        <v>534</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>87866990</t>
+          <t>82252918</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Dr. Benjamin Nascimento</t>
+          <t>Sabrina da Conceição</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>21.437.986/0001-31</t>
+          <t>07.982.415/0001-57</t>
         </is>
       </c>
       <c r="O9" s="6" t="inlineStr">
         <is>
-          <t>cultivate plug-and-play ROI</t>
+          <t>whiteboard distributed web services</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1739,59 +1719,55 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>+55 84 1949 6135</t>
-        </is>
+          <t>FAX</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>2032085819</v>
       </c>
       <c r="S9" s="6" t="inlineStr">
         <is>
-          <t>eduardo49@gmail.com</t>
+          <t>martinsarthur@hotmail.com</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>ENTREGA</t>
         </is>
       </c>
       <c r="U9" s="6" t="inlineStr">
         <is>
-          <t>43037275</t>
+          <t>32227973</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Feira de Farias</t>
+          <t>Lagoa de Ramos</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>41</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Setor Anthony Nogueira, 973
-Custodinha
-79731-851 Sales das Flores / SC</t>
+          <t>GRDGSF0UXS</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Nova Floresta</t>
+          <t>Marmiteiros</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Ipiranga</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="AA9" s="6" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>RN</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1808,7 +1784,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cliente | Fornecedor</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1818,34 +1794,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.731.294/0001-47</t>
+          <t>20.647.193/0001-84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>João Barros</t>
+          <t>Maria Luiza Cardoso</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>utilize strategic solutions</t>
+          <t>synthesize clicks-and-mortar models</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4613300</t>
+          <t>4530706</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9006</v>
+        <v>7790</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>Contribuinte</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>737</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>87866990</t>
@@ -1853,79 +1831,75 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Sra. Maysa da Conceição</t>
+          <t>Pietra da Costa</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>753.128.469-37</t>
+          <t>70.541.269/0001-60</t>
         </is>
       </c>
       <c r="O10" s="6" t="inlineStr">
         <is>
-          <t>drive one-to-one vortals</t>
+          <t>monetize sticky platforms</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>FAX</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>+55 81 7866 2066</t>
-        </is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>2742021433</v>
       </c>
       <c r="S10" s="6" t="inlineStr">
         <is>
-          <t>sda-costa@ig.com.br</t>
+          <t>alexandreda-costa@uol.com.br</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Residencial</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="U10" s="6" t="inlineStr">
         <is>
-          <t>25860-111</t>
+          <t>39128686</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Praia Rezende</t>
+          <t>Loteamento Vitor Hugo da Cunha</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>8</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Praça de Azevedo, 42
-São Francisco
-36437673 Pinto do Oeste / MT</t>
+          <t>9V4951SBWM</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Satelite</t>
+          <t>Coração De Jesus</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Santa Sofia</t>
+          <t>Embaúbas</t>
         </is>
       </c>
       <c r="AA10" s="6" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1942,7 +1916,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cliente | Fornecedor</t>
+          <t>Cliente | Transportadora</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1952,27 +1926,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48.730.951/0001-42</t>
+          <t>81.792.604/0001-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lucas Monteiro</t>
+          <t>Marcos Vinicius Moraes</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>benchmark dynamic e-business</t>
+          <t>mesh open-source info-mediaries</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4530706</t>
+          <t>4613300</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4945</v>
+        <v>1700</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1980,26 +1954,26 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>4669</v>
+        <v>2032</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>82252918</t>
+          <t>87866990</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Fernando Ramos</t>
+          <t>Sr. Igor Fernandes</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>194.325.768-09</t>
+          <t>85.690.234/0001-60</t>
         </is>
       </c>
       <c r="O11" s="6" t="inlineStr">
         <is>
-          <t>exploit viral e-commerce</t>
+          <t>seize killer applications</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2009,59 +1983,55 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Residencial</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>+55 (081) 6864 5910</t>
-        </is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>3866643639</v>
       </c>
       <c r="S11" s="6" t="inlineStr">
         <is>
-          <t>luiz-miguelsouza@gmail.com</t>
+          <t>fariasbruna@ig.com.br</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>ENTREGA</t>
         </is>
       </c>
       <c r="U11" s="6" t="inlineStr">
         <is>
-          <t>73881-920</t>
+          <t>83344003</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Trevo Ian Vieira</t>
+          <t>Travessa Diego Nascimento</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>60</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Viela de Silveira, 87
-Vila Vista Alegre
-48175218 Farias de Rocha / MA</t>
+          <t>8MLRGGSKDB</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Belvedere</t>
+          <t>Novo Tupi</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>São Luiz</t>
+          <t>Dom Cabral</t>
         </is>
       </c>
       <c r="AA11" s="6" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2078,33 +2048,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fornecedor | Transportadora</t>
+          <t>Cliente | Fornecedor | Transportadora</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pessoa Física</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>214.796.583-91</t>
+          <t>13.265.904/0001-90</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>João Guilherme Caldeira</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>07/02/2017</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Maria Alves</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>empower cutting-edge vortals</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4530702</t>
+        </is>
+      </c>
       <c r="I12" t="n">
-        <v>9539</v>
+        <v>7951</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -2112,88 +2086,84 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>4050</v>
+        <v>310</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>24794329</t>
+          <t>87866990</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Vicente Melo</t>
+          <t>Vitor Hugo Ferreira</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>05.967.238/0001-04</t>
+          <t>38.102.946/0001-31</t>
         </is>
       </c>
       <c r="O12" s="6" t="inlineStr">
         <is>
-          <t>target efficient users</t>
+          <t>exploit end-to-end e-commerce</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Comercial</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>51 9105 0084</t>
-        </is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>2610987284</v>
       </c>
       <c r="S12" s="6" t="inlineStr">
         <is>
-          <t>nascimentodavi-lucas@gmail.com</t>
+          <t>joao-gabrielrocha@ig.com.br</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Cobrança</t>
+          <t>ENTREGA</t>
         </is>
       </c>
       <c r="U12" s="6" t="inlineStr">
         <is>
-          <t>98305533</t>
+          <t>61945171</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Vila Ana Sophia Rodrigues</t>
+          <t>Estrada Heloísa Jesus</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>46</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Esplanada Ferreira, 825
-São Francisco Das Chagas
-16721877 Castro da Praia / SE</t>
+          <t>FAI3AXQFFT</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Candelaria</t>
+          <t>Nova Pampulha</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Piratininga</t>
+          <t>Conjunto Capitão Eduardo</t>
         </is>
       </c>
       <c r="AA12" s="6" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">

--- a/excel/planilhasGerada/importar-parceiros-teste.xlsx
+++ b/excel/planilhasGerada/importar-parceiros-teste.xlsx
@@ -900,58 +900,56 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fornecedor | Transportadora</t>
+          <t>Cliente | Fornecedor | Transportadora</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Estrangeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.512.369/0001-06</t>
+          <t>45931287655</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ana Laura Barros</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>scale back-end schemas</t>
-        </is>
-      </c>
+          <t>Luigi Barbosa</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>4530706</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>3988</v>
+        <v>3012</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>Contribuinte</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>7374</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>82252918</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Yasmin Correia</t>
+          <t>Cauê Freitas</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>69.127.054/0001-19</t>
+          <t>34162897573</t>
         </is>
       </c>
       <c r="O3" s="6" t="inlineStr">
         <is>
-          <t>cultivate plug-and-play systems</t>
+          <t>streamline out-of-the-box methodologies</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -961,15 +959,15 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4251175928</v>
+        <v>1878197499</v>
       </c>
       <c r="S3" s="6" t="inlineStr">
         <is>
-          <t>stellasilveira@yahoo.com.br</t>
+          <t>nogueirayago@hotmail.com</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -979,37 +977,37 @@
       </c>
       <c r="U3" s="6" t="inlineStr">
         <is>
-          <t>74186314</t>
+          <t>23610829</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Residencial de Monteiro</t>
+          <t>Esplanada Gustavo Costa</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>90</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>NFMOTX2VYF</t>
+          <t>W28PRW6EQK</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Santa Efigênia</t>
+          <t>Alta Tensão 1ª Seção</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Araguaia</t>
+          <t>Candelaria</t>
         </is>
       </c>
       <c r="AA3" s="6" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1026,58 +1024,60 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cliente | Fornecedor</t>
+          <t>Transportadora</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Pessoa Física</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>71.902.856/0001-09</t>
+          <t>826.105.943-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Beatriz Pires</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>seize viral e-commerce</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>4530702</t>
-        </is>
-      </c>
+          <t>Agatha Souza</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11/12/1955</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>9186</v>
+        <v>2615</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>Não Contribuinte</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>4046</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>87866990</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Sr. Pietro da Conceição</t>
+          <t>Srta. Julia Cavalcanti</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>70.235.168/0001-61</t>
+          <t>482.759.613-19</t>
         </is>
       </c>
       <c r="O4" s="6" t="inlineStr">
         <is>
-          <t>revolutionize end-to-end eyeballs</t>
+          <t>brand cross-platform mindshare</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1087,55 +1087,55 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>FAX</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>898549604</v>
+        <v>616660055</v>
       </c>
       <c r="S4" s="6" t="inlineStr">
         <is>
-          <t>nathanaraujo@ig.com.br</t>
+          <t>vdias@yahoo.com.br</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>COMERCIAL</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="U4" s="6" t="inlineStr">
         <is>
-          <t>54301087</t>
+          <t>96191846</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Estação Maria Clara Teixeira</t>
+          <t>Travessa Raquel Duarte</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>6</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Y38P6D8BR5</t>
+          <t>GKMEVP22NF</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Bonsucesso</t>
+          <t>Itatiaia</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Vila Nova Cachoeirinha 3ª Seção</t>
+          <t>Boa Vista</t>
         </is>
       </c>
       <c r="AA4" s="6" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1145,1032 +1145,52 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cliente | Fornecedor | Transportadora</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Estrangeiro</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92806341787</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Luiz Gustavo Rezende</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>4137</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Não Contribuinte</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>9384</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>82252918</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Sr. Matheus Ribeiro</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>80923764178</t>
-        </is>
-      </c>
-      <c r="O5" s="6" t="inlineStr">
-        <is>
-          <t>extend mission-critical e-tailers</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Residencial</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>1611269082</v>
-      </c>
-      <c r="S5" s="6" t="inlineStr">
-        <is>
-          <t>alvesnicolas@hotmail.com</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>ENTREGA</t>
-        </is>
-      </c>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>02759698</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Rua Natália Souza</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>LHVBXPUCJD</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Estrela Do Oriente</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Conjunto Floramar</t>
-        </is>
-      </c>
-      <c r="AA5" s="6" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="O5" s="6" t="n"/>
+      <c r="S5" s="6" t="n"/>
+      <c r="U5" s="6" t="n"/>
+      <c r="AA5" s="6" t="n"/>
     </row>
     <row r="6" ht="30" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fornecedor</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>83.014.629/0001-18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Bernardo Alves</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>scale synergistic interfaces</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>4530702</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2039</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Eloah Silveira</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>87.962.354/0001-03</t>
-        </is>
-      </c>
-      <c r="O6" s="6" t="inlineStr">
-        <is>
-          <t>seize web-enabled content</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Residencial</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>4154849224</v>
-      </c>
-      <c r="S6" s="6" t="inlineStr">
-        <is>
-          <t>novaeslara@gmail.com</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>RESIDENCIAL</t>
-        </is>
-      </c>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>03598782</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Favela de Gomes</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>43UX95YFE4</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Barroca</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Sion</t>
-        </is>
-      </c>
-      <c r="AA6" s="6" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="O6" s="6" t="n"/>
+      <c r="S6" s="6" t="n"/>
+      <c r="U6" s="6" t="n"/>
+      <c r="AA6" s="6" t="n"/>
     </row>
     <row r="7" ht="30" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>31.570.894/0001-89</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Maysa Santos</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>visualize impactful networks</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>3250706</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>4004</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Não Contribuinte</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>182</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>24794329</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Diego Moraes</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>47.169.380/0001-56</t>
-        </is>
-      </c>
-      <c r="O7" s="6" t="inlineStr">
-        <is>
-          <t>brand extensible architectures</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>FAX</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>3253131453</v>
-      </c>
-      <c r="S7" s="6" t="inlineStr">
-        <is>
-          <t>rezendebruno@bol.com.br</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="U7" s="6" t="inlineStr">
-        <is>
-          <t>79202398</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Residencial de Gonçalves</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>O82U5M6K46</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Cidade Jardim</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>São João</t>
-        </is>
-      </c>
-      <c r="AA7" s="6" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="O7" s="6" t="n"/>
+      <c r="S7" s="6" t="n"/>
+      <c r="U7" s="6" t="n"/>
+      <c r="AA7" s="6" t="n"/>
     </row>
     <row r="8" ht="30" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fornecedor</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Estrangeiro</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>98607423169</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Srta. Caroline da Luz</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>6321</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Maria Sophia Dias</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>96781234013</t>
-        </is>
-      </c>
-      <c r="O8" s="6" t="inlineStr">
-        <is>
-          <t>seize out-of-the-box technologies</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Residencial</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>1698798481</v>
-      </c>
-      <c r="S8" s="6" t="inlineStr">
-        <is>
-          <t>isaac12@uol.com.br</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>COMERCIAL</t>
-        </is>
-      </c>
-      <c r="U8" s="6" t="inlineStr">
-        <is>
-          <t>03875829</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Lago Luiz Henrique Vieira</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>FG5G21E3VF</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Olhos D'água</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Vila Nossa Senhora Do Rosário</t>
-        </is>
-      </c>
-      <c r="AA8" s="6" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="O8" s="6" t="n"/>
+      <c r="S8" s="6" t="n"/>
+      <c r="U8" s="6" t="n"/>
+      <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9" ht="30" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cliente | Fornecedor</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>32.618.570/0001-36</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Thiago Lopes</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>brand dynamic ROI</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>4530702</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>9944</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Não Contribuinte</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>534</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>82252918</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Sabrina da Conceição</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>07.982.415/0001-57</t>
-        </is>
-      </c>
-      <c r="O9" s="6" t="inlineStr">
-        <is>
-          <t>whiteboard distributed web services</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>FAX</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>2032085819</v>
-      </c>
-      <c r="S9" s="6" t="inlineStr">
-        <is>
-          <t>martinsarthur@hotmail.com</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>ENTREGA</t>
-        </is>
-      </c>
-      <c r="U9" s="6" t="inlineStr">
-        <is>
-          <t>32227973</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Lagoa de Ramos</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>GRDGSF0UXS</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Marmiteiros</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Estrela</t>
-        </is>
-      </c>
-      <c r="AA9" s="6" t="inlineStr">
-        <is>
-          <t>RN</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="O9" s="6" t="n"/>
+      <c r="S9" s="6" t="n"/>
+      <c r="U9" s="6" t="n"/>
+      <c r="AA9" s="6" t="n"/>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20.647.193/0001-84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Maria Luiza Cardoso</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>synthesize clicks-and-mortar models</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>4530706</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>7790</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Contribuinte</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>737</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>87866990</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Pietra da Costa</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>70.541.269/0001-60</t>
-        </is>
-      </c>
-      <c r="O10" s="6" t="inlineStr">
-        <is>
-          <t>monetize sticky platforms</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Celular</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>2742021433</v>
-      </c>
-      <c r="S10" s="6" t="inlineStr">
-        <is>
-          <t>alexandreda-costa@uol.com.br</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="U10" s="6" t="inlineStr">
-        <is>
-          <t>39128686</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Loteamento Vitor Hugo da Cunha</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>9V4951SBWM</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Coração De Jesus</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Embaúbas</t>
-        </is>
-      </c>
-      <c r="AA10" s="6" t="inlineStr">
-        <is>
-          <t>PB</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="O10" s="6" t="n"/>
+      <c r="S10" s="6" t="n"/>
+      <c r="U10" s="6" t="n"/>
+      <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Cliente | Transportadora</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>81.792.604/0001-10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Marcos Vinicius Moraes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>mesh open-source info-mediaries</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>4613300</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1700</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Contribuinte</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>2032</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>87866990</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Sr. Igor Fernandes</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>85.690.234/0001-60</t>
-        </is>
-      </c>
-      <c r="O11" s="6" t="inlineStr">
-        <is>
-          <t>seize killer applications</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>3866643639</v>
-      </c>
-      <c r="S11" s="6" t="inlineStr">
-        <is>
-          <t>fariasbruna@ig.com.br</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>ENTREGA</t>
-        </is>
-      </c>
-      <c r="U11" s="6" t="inlineStr">
-        <is>
-          <t>83344003</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Travessa Diego Nascimento</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>8MLRGGSKDB</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>Novo Tupi</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Dom Cabral</t>
-        </is>
-      </c>
-      <c r="AA11" s="6" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="O11" s="6" t="n"/>
+      <c r="S11" s="6" t="n"/>
+      <c r="U11" s="6" t="n"/>
+      <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Cliente | Fornecedor | Transportadora</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>13.265.904/0001-90</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Maria Alves</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>empower cutting-edge vortals</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>4530702</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>7951</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Contribuinte</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>310</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>87866990</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Vitor Hugo Ferreira</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>38.102.946/0001-31</t>
-        </is>
-      </c>
-      <c r="O12" s="6" t="inlineStr">
-        <is>
-          <t>exploit end-to-end e-commerce</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Celular</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>2610987284</v>
-      </c>
-      <c r="S12" s="6" t="inlineStr">
-        <is>
-          <t>joao-gabrielrocha@ig.com.br</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>ENTREGA</t>
-        </is>
-      </c>
-      <c r="U12" s="6" t="inlineStr">
-        <is>
-          <t>61945171</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Estrada Heloísa Jesus</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>FAI3AXQFFT</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Nova Pampulha</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>Conjunto Capitão Eduardo</t>
-        </is>
-      </c>
-      <c r="AA12" s="6" t="inlineStr">
-        <is>
-          <t>PB</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="O12" s="6" t="n"/>
+      <c r="S12" s="6" t="n"/>
+      <c r="U12" s="6" t="n"/>
+      <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="O13" s="6" t="n"/>

--- a/excel/planilhasGerada/importar-parceiros-teste.xlsx
+++ b/excel/planilhasGerada/importar-parceiros-teste.xlsx
@@ -900,56 +900,49 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cliente | Fornecedor | Transportadora</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Estrangeiro</t>
+          <t>Pessoa Física</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45931287655</t>
+          <t>965.734.108-66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Luigi Barbosa</t>
+          <t>Júlia da Mata</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>24/11/1991</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>3012</v>
+        <v>4471</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Contribuinte</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>7374</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>82252918</t>
-        </is>
-      </c>
+          <t>Isento</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Cauê Freitas</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>34162897573</t>
+          <t>Breno Lima</t>
         </is>
       </c>
       <c r="O3" s="6" t="inlineStr">
         <is>
-          <t>streamline out-of-the-box methodologies</t>
+          <t>monetize robust deliverables</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -959,15 +952,15 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1878197499</v>
+        <v>599389564</v>
       </c>
       <c r="S3" s="6" t="inlineStr">
         <is>
-          <t>nogueirayago@hotmail.com</t>
+          <t>daniloaraujo@uol.com.br</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -977,37 +970,37 @@
       </c>
       <c r="U3" s="6" t="inlineStr">
         <is>
-          <t>23610829</t>
+          <t>11654132</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Esplanada Gustavo Costa</t>
+          <t>Jardim Costela</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>W28PRW6EQK</t>
+          <t>107IATQ9KZ</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Alta Tensão 1ª Seção</t>
+          <t>Jardim São José</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Candelaria</t>
+          <t>Sport Club</t>
         </is>
       </c>
       <c r="AA3" s="6" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1024,173 +1017,1076 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Cliente | Fornecedor | Transportadora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.317.260/0001-14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>João Gabriel Gonçalves</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>expedite clicks-and-mortar markets</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4613300</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>6245</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Não Contribuinte</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>2939</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>87866990</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Dra. Ana Luiza Gonçalves</t>
+        </is>
+      </c>
+      <c r="O4" s="6" t="inlineStr">
+        <is>
+          <t>revolutionize proactive supply-chains</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>1047298080</v>
+      </c>
+      <c r="S4" s="6" t="inlineStr">
+        <is>
+          <t>fariasluna@yahoo.com.br</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>28399362</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Residencial Lívia da Cunha</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>5QB72JRNOP</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Penha</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Marçola</t>
+        </is>
+      </c>
+      <c r="AA4" s="6" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cliente | Transportadora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.482.967/0001-80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Marina Rodrigues</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>synthesize scalable relationships</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4530702</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1368</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Não Contribuinte</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>5957</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>87866990</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Carolina Sales</t>
+        </is>
+      </c>
+      <c r="O5" s="6" t="inlineStr">
+        <is>
+          <t>disintermediate magnetic schemas</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>3084608058</v>
+      </c>
+      <c r="S5" s="6" t="inlineStr">
+        <is>
+          <t>luiz-gustavosouza@gmail.com</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>COBRANCA</t>
+        </is>
+      </c>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>02593328</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Largo Lorena da Cruz</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>T0H55LTJJN</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Vila Paris</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Belmonte</t>
+        </is>
+      </c>
+      <c r="AA5" s="6" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cliente | Fornecedor | Transportadora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Estrangeiro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98451263089</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Olivia Cardoso</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>7765</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Isento</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Gustavo Gomes</t>
+        </is>
+      </c>
+      <c r="O6" s="6" t="inlineStr">
+        <is>
+          <t>synergize efficient partnerships</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>3861203291</v>
+      </c>
+      <c r="S6" s="6" t="inlineStr">
+        <is>
+          <t>nicoleviana@gmail.com</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>79098453</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Residencial de Campos</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>7NSCY5NTQP</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Boa União 1ª Seção</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Salgado Filho</t>
+        </is>
+      </c>
+      <c r="AA6" s="6" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Transportadora</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Estrangeiro</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18450762901</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sra. Lívia Moraes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>8630</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Isento</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Dra. Caroline Viana</t>
+        </is>
+      </c>
+      <c r="O7" s="6" t="inlineStr">
+        <is>
+          <t>optimize web-enabled web-readiness</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>4082500932</v>
+      </c>
+      <c r="S7" s="6" t="inlineStr">
+        <is>
+          <t>kaiquecavalcanti@uol.com.br</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>COMERCIAL</t>
+        </is>
+      </c>
+      <c r="U7" s="6" t="inlineStr">
+        <is>
+          <t>70335675</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Núcleo Pedro Henrique Aragão</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>HHPQG12D86</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Vila Minaslandia</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Vila Atila De Paiva</t>
+        </is>
+      </c>
+      <c r="AA7" s="6" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fornecedor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Estrangeiro</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>72509346865</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Maysa Silveira</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>9927</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Isento</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Murilo da Cunha</t>
+        </is>
+      </c>
+      <c r="O8" s="6" t="inlineStr">
+        <is>
+          <t>generate revolutionary technologies</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>FAX</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>37800328</v>
+      </c>
+      <c r="S8" s="6" t="inlineStr">
+        <is>
+          <t>barbosaerick@uol.com.br</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="U8" s="6" t="inlineStr">
+        <is>
+          <t>56406021</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Via de Cunha</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>H5N9IOV1V3</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Santana Do Cafezal</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Vila Primeiro De Maio</t>
+        </is>
+      </c>
+      <c r="AA8" s="6" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fornecedor | Transportadora</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Estrangeiro</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37465091225</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Joaquim Dias</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>6967</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Isento</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Renan Gomes</t>
+        </is>
+      </c>
+      <c r="O9" s="6" t="inlineStr">
+        <is>
+          <t>repurpose scalable functionalities</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>3884231704</v>
+      </c>
+      <c r="S9" s="6" t="inlineStr">
+        <is>
+          <t>vinicius52@yahoo.com.br</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>COBRANCA</t>
+        </is>
+      </c>
+      <c r="U9" s="6" t="inlineStr">
+        <is>
+          <t>75905246</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ladeira Novaes</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>TNML1613UL</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Chácara Leonina</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Bacurau</t>
+        </is>
+      </c>
+      <c r="AA9" s="6" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cliente | Transportadora</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Pessoa Física</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>826.105.943-05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Agatha Souza</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>11/12/1955</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>2615</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>253.617.048-90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Camila Costela</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>03/05/1945</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>2496</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>Não Contribuinte</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>4046</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>87866990</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Srta. Julia Cavalcanti</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>482.759.613-19</t>
-        </is>
-      </c>
-      <c r="O4" s="6" t="inlineStr">
-        <is>
-          <t>brand cross-platform mindshare</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="K10" t="n">
+        <v>1434</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>24794329</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Srta. Letícia da Mota</t>
+        </is>
+      </c>
+      <c r="O10" s="6" t="inlineStr">
+        <is>
+          <t>whiteboard cross-platform eyeballs</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>616660055</v>
-      </c>
-      <c r="S4" s="6" t="inlineStr">
-        <is>
-          <t>vdias@yahoo.com.br</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>3192920685</v>
+      </c>
+      <c r="S10" s="6" t="inlineStr">
+        <is>
+          <t>arthur02@bol.com.br</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>COMERCIAL</t>
+        </is>
+      </c>
+      <c r="U10" s="6" t="inlineStr">
+        <is>
+          <t>55184453</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Recanto João Miguel Gonçalves</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>WR3LDKTITU</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Pompéia</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Horto</t>
+        </is>
+      </c>
+      <c r="AA10" s="6" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cliente</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pessoa Física</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>286.395.741-46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Isaac Campos</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>06/02/1945</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>3581</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Contribuinte</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>708</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>24794329</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Luiz Gustavo Barros</t>
+        </is>
+      </c>
+      <c r="O11" s="6" t="inlineStr">
+        <is>
+          <t>synthesize frictionless paradigms</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>FAX</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>4090773287</v>
+      </c>
+      <c r="S11" s="6" t="inlineStr">
+        <is>
+          <t>pedro-lucas56@uol.com.br</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
       </c>
-      <c r="U4" s="6" t="inlineStr">
-        <is>
-          <t>96191846</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Travessa Raquel Duarte</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>GKMEVP22NF</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Itatiaia</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Boa Vista</t>
-        </is>
-      </c>
-      <c r="AA4" s="6" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="U11" s="6" t="inlineStr">
+        <is>
+          <t>92113034</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Sítio Costa</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>NXM4U13X3H</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>União</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Minas Caixa</t>
+        </is>
+      </c>
+      <c r="AA11" s="6" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>Brasil</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="O5" s="6" t="n"/>
-      <c r="S5" s="6" t="n"/>
-      <c r="U5" s="6" t="n"/>
-      <c r="AA5" s="6" t="n"/>
-    </row>
-    <row r="6" ht="30" customHeight="1">
-      <c r="O6" s="6" t="n"/>
-      <c r="S6" s="6" t="n"/>
-      <c r="U6" s="6" t="n"/>
-      <c r="AA6" s="6" t="n"/>
-    </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="O7" s="6" t="n"/>
-      <c r="S7" s="6" t="n"/>
-      <c r="U7" s="6" t="n"/>
-      <c r="AA7" s="6" t="n"/>
-    </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="O8" s="6" t="n"/>
-      <c r="S8" s="6" t="n"/>
-      <c r="U8" s="6" t="n"/>
-      <c r="AA8" s="6" t="n"/>
-    </row>
-    <row r="9" ht="30" customHeight="1">
-      <c r="O9" s="6" t="n"/>
-      <c r="S9" s="6" t="n"/>
-      <c r="U9" s="6" t="n"/>
-      <c r="AA9" s="6" t="n"/>
-    </row>
-    <row r="10" ht="30" customHeight="1">
-      <c r="O10" s="6" t="n"/>
-      <c r="S10" s="6" t="n"/>
-      <c r="U10" s="6" t="n"/>
-      <c r="AA10" s="6" t="n"/>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="O11" s="6" t="n"/>
-      <c r="S11" s="6" t="n"/>
-      <c r="U11" s="6" t="n"/>
-      <c r="AA11" s="6" t="n"/>
-    </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="O12" s="6" t="n"/>
-      <c r="S12" s="6" t="n"/>
-      <c r="U12" s="6" t="n"/>
-      <c r="AA12" s="6" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cliente | Fornecedor</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>67.928.301/0001-50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Daniela Santos</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>strategize frictionless models</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3250706</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>9294</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Não Contribuinte</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>7009</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>82252918</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Thales Lima</t>
+        </is>
+      </c>
+      <c r="O12" s="6" t="inlineStr">
+        <is>
+          <t>embrace innovative applications</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>376280312</v>
+      </c>
+      <c r="S12" s="6" t="inlineStr">
+        <is>
+          <t>mariacarvalho@gmail.com</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+      <c r="U12" s="6" t="inlineStr">
+        <is>
+          <t>97773351</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Lagoa Gustavo Porto</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>H2IVWUF7G1</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Pilar</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Santa Isabel</t>
+        </is>
+      </c>
+      <c r="AA12" s="6" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="O13" s="6" t="n"/>

--- a/excel/planilhasGerada/importar-parceiros-teste.xlsx
+++ b/excel/planilhasGerada/importar-parceiros-teste.xlsx
@@ -900,7 +900,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cliente</t>
+          <t>Cliente | Fornecedor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -910,104 +910,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>965.734.108-66</t>
+          <t>078.162.495-94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Júlia da Mata</t>
+          <t>Sr. Davi Lucca Nogueira</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>24/11/1991</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>4471</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>Contribuinte</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>3730</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Breno Lima</t>
-        </is>
-      </c>
-      <c r="O3" s="6" t="inlineStr">
-        <is>
-          <t>monetize robust deliverables</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>599389564</v>
-      </c>
-      <c r="S3" s="6" t="inlineStr">
-        <is>
-          <t>daniloaraujo@uol.com.br</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>COMERCIAL</t>
-        </is>
-      </c>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>11654132</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Jardim Costela</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>107IATQ9KZ</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Jardim São José</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Sport Club</t>
-        </is>
-      </c>
-      <c r="AA3" s="6" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" s="6" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" s="6" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" s="6" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" s="6" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -1017,124 +956,53 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cliente | Fornecedor | Transportadora</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Estrangeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54.317.260/0001-14</t>
+          <t>70342918532</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>João Gabriel Gonçalves</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>expedite clicks-and-mortar markets</t>
-        </is>
-      </c>
+          <t>Diego Teixeira</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>4613300</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>6245</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Não Contribuinte</t>
+          <t>Contribuinte</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>2939</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>87866990</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Dra. Ana Luiza Gonçalves</t>
-        </is>
-      </c>
-      <c r="O4" s="6" t="inlineStr">
-        <is>
-          <t>revolutionize proactive supply-chains</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Celular</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>1047298080</v>
-      </c>
-      <c r="S4" s="6" t="inlineStr">
-        <is>
-          <t>fariasluna@yahoo.com.br</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>RESIDENCIAL</t>
-        </is>
-      </c>
-      <c r="U4" s="6" t="inlineStr">
-        <is>
-          <t>28399362</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Residencial Lívia da Cunha</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>924</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>5QB72JRNOP</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Penha</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Marçola</t>
-        </is>
-      </c>
-      <c r="AA4" s="6" t="inlineStr">
-        <is>
-          <t>PI</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+        <v>4119</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" s="6" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" s="6" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" s="6" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" s="6" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -1144,124 +1012,53 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cliente | Transportadora</t>
+          <t>Fornecedor | Transportadora</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Pessoa Física</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31.482.967/0001-80</t>
+          <t>567.324.081-35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Marina Rodrigues</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>synthesize scalable relationships</t>
-        </is>
-      </c>
+          <t>Maria Eduarda Cardoso</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4530702</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1368</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Não Contribuinte</t>
+          <t>Contribuinte</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>5957</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>87866990</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Carolina Sales</t>
-        </is>
-      </c>
-      <c r="O5" s="6" t="inlineStr">
-        <is>
-          <t>disintermediate magnetic schemas</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Comercial</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>3084608058</v>
-      </c>
-      <c r="S5" s="6" t="inlineStr">
-        <is>
-          <t>luiz-gustavosouza@gmail.com</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>COBRANCA</t>
-        </is>
-      </c>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>02593328</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Largo Lorena da Cruz</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>T0H55LTJJN</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Vila Paris</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Belmonte</t>
-        </is>
-      </c>
-      <c r="AA5" s="6" t="inlineStr">
-        <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+        <v>9121</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" s="6" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" s="6" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" s="6" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" s="6" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -1271,7 +1068,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cliente | Fornecedor | Transportadora</t>
+          <t>Fornecedor | Transportadora</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1281,20 +1078,18 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98451263089</t>
+          <t>16794285355</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Olivia Cardoso</t>
+          <t>Valentina da Paz</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>7765</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>Isento</t>
@@ -1302,79 +1097,22 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Gustavo Gomes</t>
-        </is>
-      </c>
-      <c r="O6" s="6" t="inlineStr">
-        <is>
-          <t>synergize efficient partnerships</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Celular</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>3861203291</v>
-      </c>
-      <c r="S6" s="6" t="inlineStr">
-        <is>
-          <t>nicoleviana@gmail.com</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>RESIDENCIAL</t>
-        </is>
-      </c>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>79098453</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Residencial de Campos</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>7NSCY5NTQP</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Boa União 1ª Seção</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Salgado Filho</t>
-        </is>
-      </c>
-      <c r="AA6" s="6" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" s="6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" s="6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" s="6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" s="6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="inlineStr">
@@ -1384,110 +1122,53 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transportadora</t>
+          <t>Cliente | Transportadora</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Estrangeiro</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18450762901</t>
+          <t>46.187.593/0001-48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sra. Lívia Moraes</t>
+          <t>Gabriela Cardoso</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>8630</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>Contribuinte</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>5634</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Dra. Caroline Viana</t>
-        </is>
-      </c>
-      <c r="O7" s="6" t="inlineStr">
-        <is>
-          <t>optimize web-enabled web-readiness</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Comercial</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>4082500932</v>
-      </c>
-      <c r="S7" s="6" t="inlineStr">
-        <is>
-          <t>kaiquecavalcanti@uol.com.br</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>COMERCIAL</t>
-        </is>
-      </c>
-      <c r="U7" s="6" t="inlineStr">
-        <is>
-          <t>70335675</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Núcleo Pedro Henrique Aragão</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>HHPQG12D86</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Vila Minaslandia</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Vila Atila De Paiva</t>
-        </is>
-      </c>
-      <c r="AA7" s="6" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" s="6" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" s="6" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" s="6" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" s="6" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" t="inlineStr">
@@ -1497,30 +1178,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fornecedor</t>
+          <t>Transportadora</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Estrangeiro</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>72509346865</t>
+          <t>23.907.486/0001-41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Maysa Silveira</t>
+          <t>Sra. Ana Lívia Mendes</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>9927</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>Isento</t>
@@ -1528,79 +1207,22 @@
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Murilo da Cunha</t>
-        </is>
-      </c>
-      <c r="O8" s="6" t="inlineStr">
-        <is>
-          <t>generate revolutionary technologies</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>FAX</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>37800328</v>
-      </c>
-      <c r="S8" s="6" t="inlineStr">
-        <is>
-          <t>barbosaerick@uol.com.br</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>RESIDENCIAL</t>
-        </is>
-      </c>
-      <c r="U8" s="6" t="inlineStr">
-        <is>
-          <t>56406021</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Via de Cunha</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>H5N9IOV1V3</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Santana Do Cafezal</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Vila Primeiro De Maio</t>
-        </is>
-      </c>
-      <c r="AA8" s="6" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" s="6" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" s="6" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" s="6" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" s="6" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" t="inlineStr">
@@ -1610,30 +1232,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fornecedor | Transportadora</t>
+          <t>Transportadora</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Estrangeiro</t>
+          <t>Pessoa Física</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>37465091225</t>
+          <t>729.560.843-56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Joaquim Dias</t>
+          <t>Breno da Luz</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>6967</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>Isento</t>
@@ -1641,79 +1261,22 @@
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Renan Gomes</t>
-        </is>
-      </c>
-      <c r="O9" s="6" t="inlineStr">
-        <is>
-          <t>repurpose scalable functionalities</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Celular</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>3884231704</v>
-      </c>
-      <c r="S9" s="6" t="inlineStr">
-        <is>
-          <t>vinicius52@yahoo.com.br</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>COBRANCA</t>
-        </is>
-      </c>
-      <c r="U9" s="6" t="inlineStr">
-        <is>
-          <t>75905246</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Ladeira Novaes</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>TNML1613UL</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Chácara Leonina</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Bacurau</t>
-        </is>
-      </c>
-      <c r="AA9" s="6" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" s="6" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" s="6" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" s="6" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" s="6" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" t="inlineStr">
@@ -1728,115 +1291,48 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pessoa Física</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>253.617.048-90</t>
+          <t>14.350.697/0001-35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Camila Costela</t>
+          <t>Davi Lucas Ferreira</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>03/05/1945</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>2496</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Não Contribuinte</t>
+          <t>Contribuinte</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1434</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>24794329</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Srta. Letícia da Mota</t>
-        </is>
-      </c>
-      <c r="O10" s="6" t="inlineStr">
-        <is>
-          <t>whiteboard cross-platform eyeballs</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Residencial</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>3192920685</v>
-      </c>
-      <c r="S10" s="6" t="inlineStr">
-        <is>
-          <t>arthur02@bol.com.br</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>COMERCIAL</t>
-        </is>
-      </c>
-      <c r="U10" s="6" t="inlineStr">
-        <is>
-          <t>55184453</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Recanto João Miguel Gonçalves</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>WR3LDKTITU</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Pompéia</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Horto</t>
-        </is>
-      </c>
-      <c r="AA10" s="6" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+        <v>1730</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" s="6" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" s="6" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" s="6" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" t="inlineStr">
@@ -1846,120 +1342,53 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cliente</t>
+          <t>Fornecedor | Transportadora</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pessoa Física</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>286.395.741-46</t>
+          <t>68.014.937/0001-50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Isaac Campos</t>
+          <t>Kamilly Araújo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>06/02/1945</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>3581</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>Contribuinte</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>708</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>24794329</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Luiz Gustavo Barros</t>
-        </is>
-      </c>
-      <c r="O11" s="6" t="inlineStr">
-        <is>
-          <t>synthesize frictionless paradigms</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>FAX</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>4090773287</v>
-      </c>
-      <c r="S11" s="6" t="inlineStr">
-        <is>
-          <t>pedro-lucas56@uol.com.br</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="U11" s="6" t="inlineStr">
-        <is>
-          <t>92113034</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Sítio Costa</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>NXM4U13X3H</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>União</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Minas Caixa</t>
-        </is>
-      </c>
-      <c r="AA11" s="6" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+        <v>8365</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" s="6" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" s="6" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" s="6" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" t="inlineStr">
@@ -1969,7 +1398,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cliente | Fornecedor</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1979,114 +1408,43 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>67.928.301/0001-50</t>
+          <t>62.853.971/0001-31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Daniela Santos</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>strategize frictionless models</t>
-        </is>
-      </c>
+          <t>Maria Sophia Cavalcanti</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3250706</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>9294</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>Não Contribuinte</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>7009</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>82252918</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Thales Lima</t>
-        </is>
-      </c>
-      <c r="O12" s="6" t="inlineStr">
-        <is>
-          <t>embrace innovative applications</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Residencial</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>376280312</v>
-      </c>
-      <c r="S12" s="6" t="inlineStr">
-        <is>
-          <t>mariacarvalho@gmail.com</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="U12" s="6" t="inlineStr">
-        <is>
-          <t>97773351</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Lagoa Gustavo Porto</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>H2IVWUF7G1</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Pilar</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>Santa Isabel</t>
-        </is>
-      </c>
-      <c r="AA12" s="6" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+        <v>5592</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" s="6" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" s="6" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" s="6" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="O13" s="6" t="n"/>

--- a/excel/planilhasGerada/importar-parceiros-teste.xlsx
+++ b/excel/planilhasGerada/importar-parceiros-teste.xlsx
@@ -900,53 +900,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cliente | Fornecedor</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pessoa Física</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>078.162.495-94</t>
+          <t>50.148.972/0001-04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sr. Davi Lucca Nogueira</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Otávio Almeida</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>morph end-to-end experiences</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4613300</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>5338</v>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Contribuinte</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>3730</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" s="6" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>2851</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>24794329</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Camila Cardoso</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>31.649.075/0001-21</t>
+        </is>
+      </c>
+      <c r="O3" s="6" t="inlineStr">
+        <is>
+          <t>visualize wireless bandwidth</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" s="6" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" s="6" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" s="6" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>COBRANCA</t>
+        </is>
+      </c>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>26735581</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Ladeira Carolina Martins</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D20GH2B8RR</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Vila Nova Dos Milionarios</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Céu Azul</t>
+        </is>
+      </c>
+      <c r="AA3" s="6" t="inlineStr">
+        <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -956,7 +1022,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cliente</t>
+          <t>Cliente | Transportadora</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -966,485 +1032,143 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70342918532</t>
+          <t>62950837140</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Diego Teixeira</t>
+          <t>Vitor Gabriel da Luz</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>686</v>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Contribuinte</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>4119</v>
-      </c>
+          <t>Isento</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" s="6" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Eduardo Costa</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>19845706339</t>
+        </is>
+      </c>
+      <c r="O4" s="6" t="inlineStr">
+        <is>
+          <t>integrate B2C e-commerce</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" s="6" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" s="6" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" s="6" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>COBRANCA</t>
+        </is>
+      </c>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>19475737</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Passarela Daniela da Luz</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>9PHTVNG8KS</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Vila Independencia 3ª Seção</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Marieta 3ª Seção</t>
+        </is>
+      </c>
+      <c r="AA4" s="6" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fornecedor | Transportadora</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Pessoa Física</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>567.324.081-35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Maria Eduarda Cardoso</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Contribuinte</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>9121</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" s="6" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" s="6" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" s="6" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" s="6" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+      <c r="O5" s="6" t="n"/>
+      <c r="S5" s="6" t="n"/>
+      <c r="U5" s="6" t="n"/>
+      <c r="AA5" s="6" t="n"/>
     </row>
     <row r="6" ht="30" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fornecedor | Transportadora</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Estrangeiro</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16794285355</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Valentina da Paz</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" s="6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" s="6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" s="6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" s="6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
+      <c r="O6" s="6" t="n"/>
+      <c r="S6" s="6" t="n"/>
+      <c r="U6" s="6" t="n"/>
+      <c r="AA6" s="6" t="n"/>
     </row>
     <row r="7" ht="30" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cliente | Transportadora</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>46.187.593/0001-48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Gabriela Cardoso</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Contribuinte</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>5634</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" s="6" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" s="6" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" s="6" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" s="6" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+      <c r="O7" s="6" t="n"/>
+      <c r="S7" s="6" t="n"/>
+      <c r="U7" s="6" t="n"/>
+      <c r="AA7" s="6" t="n"/>
     </row>
     <row r="8" ht="30" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Transportadora</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>23.907.486/0001-41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Sra. Ana Lívia Mendes</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" s="6" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" s="6" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" s="6" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" s="6" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
+      <c r="O8" s="6" t="n"/>
+      <c r="S8" s="6" t="n"/>
+      <c r="U8" s="6" t="n"/>
+      <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9" ht="30" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Transportadora</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Pessoa Física</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>729.560.843-56</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Breno da Luz</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Isento</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" s="6" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" s="6" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" s="6" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" s="6" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
+      <c r="O9" s="6" t="n"/>
+      <c r="S9" s="6" t="n"/>
+      <c r="U9" s="6" t="n"/>
+      <c r="AA9" s="6" t="n"/>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cliente | Transportadora</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.350.697/0001-35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Davi Lucas Ferreira</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Contribuinte</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>1730</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" s="6" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" s="6" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" s="6" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" s="6" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
+      <c r="O10" s="6" t="n"/>
+      <c r="S10" s="6" t="n"/>
+      <c r="U10" s="6" t="n"/>
+      <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Fornecedor | Transportadora</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>68.014.937/0001-50</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Kamilly Araújo</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Contribuinte</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>8365</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" s="6" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" s="6" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" s="6" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" s="6" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
+      <c r="O11" s="6" t="n"/>
+      <c r="S11" s="6" t="n"/>
+      <c r="U11" s="6" t="n"/>
+      <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>62.853.971/0001-31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Maria Sophia Cavalcanti</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Não Contribuinte</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>5592</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" s="6" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" s="6" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" s="6" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" s="6" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
+      <c r="O12" s="6" t="n"/>
+      <c r="S12" s="6" t="n"/>
+      <c r="U12" s="6" t="n"/>
+      <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="O13" s="6" t="n"/>
